--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B62ECB-02E4-4456-BC26-8AD721022D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F76D47-2950-4076-AC00-AF989A45B6BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,17 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -456,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -467,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C3" s="2">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,25 +486,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>168.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F76D47-2950-4076-AC00-AF989A45B6BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8CEDCC-233E-45EE-8031-1E7038BC6CEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,17 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>10.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,12 +489,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Zn_3His_threshold\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8CEDCC-233E-45EE-8031-1E7038BC6CEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5C408D-33D1-41F5-B35C-87EC396B9AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,18 +423,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -456,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>
@@ -489,16 +488,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Zn_3His_threshold\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5C408D-33D1-41F5-B35C-87EC396B9AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FBEAA-C48C-4C0A-A350-8BACBB5E4A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -487,8 +490,8 @@
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>20</v>
+      <c r="C5" s="3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FBEAA-C48C-4C0A-A350-8BACBB5E4A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978B2C4-8C3D-4FFF-8C8A-BC12168745EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>

--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978B2C4-8C3D-4FFF-8C8A-BC12168745EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8F2D-231D-43F4-A557-751E57F7C0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,8 +457,8 @@
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>11</v>
+      <c r="C2" s="3">
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,8 +468,8 @@
       <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>10</v>
+      <c r="C3" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8F2D-231D-43F4-A557-751E57F7C0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185281AE-DF90-46B0-91DB-099CFF9226F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/2His_1Asp/4.xlsx
+++ b/Threshold/Zn/2His_1Asp/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185281AE-DF90-46B0-91DB-099CFF9226F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A79798-9E42-4A49-A3B6-346D1A591351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
